--- a/uploads/processed_batch_template.xlsx
+++ b/uploads/processed_batch_template.xlsx
@@ -524,7 +524,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1D1D5CBB1BF21A</t>
+          <t>101D5CBB1BF21A</t>
         </is>
       </c>
       <c r="F2" t="n">
